--- a/archivos de importación/asistencia.xlsx
+++ b/archivos de importación/asistencia.xlsx
@@ -1,71 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cbe82d14fb70d01/Documentos/CESMI/Tercer AÑO/Seminario de Análisis/Gestion_de_Asistencia_Escolar/archivos de importación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_212DDCDF7AB79F30EF57908CD1CD97A9F2316BD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4812C2-44E1-4224-A902-EB9A492DB265}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_085DB0AF91739A0E623554765859B67D9ED199F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C04F179-D88A-419C-AC4F-4410327E1E5D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>estado	fecha 	Alumno	          Profesor	          Materia</t>
-  </si>
-  <si>
-    <t>presente	14/03/2025	Luisa Méndez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>ausente	14/03/2025	Carlos Gómez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>presente	14/03/2025	Carlos Gómez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>ausente	17/03/2025	Luisa Méndez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>presente	17/03/2025	Luisa Méndez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>ausente	17/03/2025	Carlos Gómez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>presente	17/03/2025	Carlos Gómez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>ausente	17/3/2025	     Carlos Gómez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>presente	17/3/2025	     Luisa Méndez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>presente	17/3/2025	     Carlos Gómez	Hugo López	Base de Datos</t>
-  </si>
-  <si>
-    <t>ausente	17/3/2025	     Luisa Méndez	Hugo López	Base de Datos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     fecha </t>
+  </si>
+  <si>
+    <t>presente</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
+    <t>Luisa Méndez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hugo López</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Base de Datos</t>
+  </si>
+  <si>
+    <t>ausente</t>
+  </si>
+  <si>
+    <t>Carlos Gómez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Hugo López</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Hugo López</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>17/3/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Carlos Gómez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Luisa Méndez</t>
+  </si>
+  <si>
+    <t>Materia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Alumno    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesor   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -77,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,18 +113,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -183,7 +229,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -218,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,99 +439,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F1" sqref="F1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/archivos de importación/asistencia.xlsx
+++ b/archivos de importación/asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cbe82d14fb70d01/Documentos/CESMI/Tercer AÑO/Seminario de Análisis/Gestion_de_Asistencia_Escolar/archivos de importación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_085DB0AF91739A0E623554765859B67D9ED199F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C04F179-D88A-419C-AC4F-4410327E1E5D}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_085DB0AF91739A0E623554765859B67D9ED199F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77E422F-C580-4388-B34F-FB3D0F60F6A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
   <si>
     <t>estado</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Luisa Méndez</t>
   </si>
   <si>
-    <t xml:space="preserve">   Hugo López</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Base de Datos</t>
-  </si>
-  <si>
     <t>ausente</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>17/03/2025</t>
   </si>
   <si>
-    <t>17/3/2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Carlos Gómez</t>
   </si>
   <si>
@@ -77,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Profesor   </t>
+  </si>
+  <si>
+    <t>Hugo López</t>
   </si>
 </sst>
 </file>
@@ -132,10 +126,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,13 +444,16 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,269 +465,269 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45733</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45733</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45733</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45733</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/archivos de importación/asistencia.xlsx
+++ b/archivos de importación/asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cbe82d14fb70d01/Documentos/CESMI/Tercer AÑO/Seminario de Análisis/Gestion_de_Asistencia_Escolar/archivos de importación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_085DB0AF91739A0E623554765859B67D9ED199F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77E422F-C580-4388-B34F-FB3D0F60F6A5}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_085DB0AF91739A0E623554765859B67D9ED199F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E7C368F-71E1-4106-96BB-BE1985EAA2C4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t>estado</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Base de Datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Hugo López</t>
   </si>
   <si>
     <t>17/03/2025</t>
@@ -126,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -135,9 +132,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,7 +446,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,13 +467,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -482,11 +484,11 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -499,11 +501,11 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -516,11 +518,11 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -533,11 +535,11 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -548,13 +550,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -565,13 +567,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -582,13 +584,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -599,9 +601,9 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -616,9 +618,9 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -633,9 +635,9 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -650,9 +652,9 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -669,8 +671,8 @@
       <c r="B13" s="4">
         <v>45733</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>7</v>
@@ -686,8 +688,8 @@
       <c r="B14" s="4">
         <v>45733</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>7</v>
@@ -703,8 +705,8 @@
       <c r="B15" s="4">
         <v>45733</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>7</v>
@@ -720,8 +722,8 @@
       <c r="B16" s="4">
         <v>45733</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>7</v>
